--- a/control dinero.xlsx
+++ b/control dinero.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="89">
   <si>
     <t>cantidad</t>
   </si>
@@ -280,13 +280,22 @@
     <t>pago</t>
   </si>
   <si>
-    <t>recargas</t>
-  </si>
-  <si>
     <t>invertidos el 16 de mayo</t>
   </si>
   <si>
     <t>18 a 24 mayo</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>farmacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leo </t>
+  </si>
+  <si>
+    <t>tienda desayuno</t>
   </si>
 </sst>
 </file>
@@ -436,12 +445,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,8 +475,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:F63" totalsRowShown="0">
   <autoFilter ref="A1:F63"/>
-  <sortState ref="A2:F62">
-    <sortCondition ref="B1:B62"/>
+  <sortState ref="A2:F63">
+    <sortCondition ref="B1:B63"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="fecha"/>
@@ -482,8 +491,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla62" displayName="Tabla62" ref="I1:K15" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="I1:K15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla62" displayName="Tabla62" ref="I1:K16" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="I1:K16"/>
   <sortState ref="I2:K15">
     <sortCondition ref="K1:K15"/>
   </sortState>
@@ -785,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,11 +857,11 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -873,14 +882,14 @@
       </c>
       <c r="G2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"ma",Tabla5[pago?],"no")</f>
-        <v>40789</v>
+        <v>40000</v>
       </c>
       <c r="H2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"pa",Tabla5[pago?],"no")</f>
         <v>8362.5</v>
       </c>
       <c r="I2">
-        <v>378</v>
+        <v>1055</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -890,20 +899,20 @@
       </c>
       <c r="L2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"tarjeta")</f>
-        <v>1991</v>
+        <v>1462</v>
       </c>
       <c r="M2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"fisico")</f>
-        <v>378</v>
+        <v>3120</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
@@ -975,10 +984,10 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>1991</v>
+        <v>1462</v>
       </c>
       <c r="M4">
-        <v>378</v>
+        <v>3120</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1006,10 +1015,10 @@
       <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1068,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
@@ -1097,7 +1106,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
       <c r="I8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
@@ -1125,7 +1134,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>1430</v>
+        <v>901</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>9</v>
@@ -1135,22 +1144,20 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C10">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C10" s="21">
+        <v>20000</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1"/>
@@ -1166,22 +1173,20 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C11">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C11" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1"/>
@@ -1197,22 +1202,20 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
+      <c r="C12" s="21">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1"/>
@@ -1226,22 +1229,20 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
+      <c r="C13" s="2">
+        <v>619</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1"/>
@@ -1259,22 +1260,20 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="1"/>
@@ -1286,66 +1285,82 @@
         <v>68</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="21">
-        <v>20000</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="1"/>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16">
-        <v>150</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="10">
+        <v>500</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17">
-        <v>20000</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="11"/>
@@ -1355,19 +1370,20 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="11"/>
@@ -1378,19 +1394,20 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19">
-        <v>150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="21">
+        <v>35</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="11"/>
@@ -1398,22 +1415,20 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="21">
+        <v>35</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="11"/>
@@ -1422,37 +1437,37 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
-      <c r="B21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="18">
-        <v>72</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="B21" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="29">
+        <v>150</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="11"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" s="29">
-        <v>619</v>
+        <v>84</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>14</v>
@@ -1464,20 +1479,20 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="24">
-        <v>4</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="25" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="29">
+        <v>3100</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="11"/>
@@ -1487,20 +1502,20 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="29">
-        <v>40</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="30" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="24">
+        <v>16</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="11"/>
@@ -1510,20 +1525,20 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="24">
-        <v>35</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="25" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="29">
+        <v>11</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="15"/>
@@ -1531,18 +1546,20 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="29">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>14</v>
@@ -1552,18 +1569,20 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="18">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>14</v>
@@ -1572,46 +1591,48 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="29">
-        <v>84</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="30" t="s">
+      <c r="A28" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="18">
+        <v>250</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="29">
+      <c r="A29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="18">
         <v>250</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>30</v>
+      <c r="A30" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>29</v>
@@ -1630,8 +1651,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>34</v>
+      <c r="A31" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>29</v>
@@ -1651,7 +1672,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>29</v>
@@ -1670,8 +1691,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>39</v>
+      <c r="A33" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>29</v>
@@ -1690,8 +1711,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>47</v>
+      <c r="A34" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>29</v>
@@ -1710,8 +1731,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>48</v>
+      <c r="A35" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>29</v>
@@ -1730,535 +1751,439 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="21">
+      <c r="A36" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="8">
         <v>250</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="8">
+        <v>250</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="8">
+        <v>250</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>250</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>250</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>250</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>250</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="8">
+        <v>21</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
         <v>27</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="21">
-        <v>250</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="21">
-        <v>250</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="8">
-        <v>250</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="8">
-        <v>250</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="2">
-        <v>77.5</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="8">
-        <v>21</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="D52" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="8">
-        <v>250</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="8">
-        <v>16</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="8">
-        <v>35</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47">
-        <v>66</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48">
-        <v>3100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49">
-        <v>250</v>
-      </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50">
-        <v>250</v>
-      </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51">
-        <v>250</v>
-      </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52">
-        <v>250</v>
-      </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="21">
-        <v>35</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>76</v>
-      </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C55">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56">
-        <v>77</v>
-      </c>
-      <c r="D56" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57">
-        <v>77</v>
-      </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58">
-        <v>77</v>
-      </c>
-      <c r="D58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59">
-        <v>150</v>
-      </c>
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60">
-        <v>27</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="2">
-        <v>15</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
+      <c r="A62" s="23"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63">
-        <v>77</v>
-      </c>
-      <c r="D63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
+      <c r="A63" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/control dinero.xlsx
+++ b/control dinero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="87">
   <si>
     <t>cantidad</t>
   </si>
@@ -284,12 +284,6 @@
   </si>
   <si>
     <t>18 a 24 mayo</t>
-  </si>
-  <si>
-    <t>banco</t>
-  </si>
-  <si>
-    <t>farmacia</t>
   </si>
   <si>
     <t xml:space="preserve">leo </t>
@@ -446,11 +440,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,11 +851,11 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -903,16 +897,16 @@
       </c>
       <c r="M2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"fisico")</f>
-        <v>3120</v>
+        <v>1620</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
@@ -1015,10 +1009,10 @@
       <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="35"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1052,7 +1046,7 @@
       </c>
       <c r="M6">
         <f>SUM(M4,-M2)</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1307,15 +1301,6 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="1"/>
-      <c r="I15">
-        <v>1000</v>
-      </c>
-      <c r="J15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
@@ -1336,15 +1321,9 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="10">
-        <v>500</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -1631,7 +1610,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -1651,7 +1630,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="31" t="s">
@@ -2120,13 +2099,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55">
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>

--- a/control dinero.xlsx
+++ b/control dinero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="88">
   <si>
     <t>cantidad</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>tienda desayuno</t>
+  </si>
+  <si>
+    <t>25 a 31 de mayo</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -425,7 +428,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -440,11 +442,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,8 +492,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla62" displayName="Tabla62" ref="I1:K16" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="I1:K16"/>
-  <sortState ref="I2:K15">
-    <sortCondition ref="K1:K15"/>
+  <sortState ref="I2:K16">
+    <sortCondition ref="K1:K16"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="cantidad"/>
@@ -789,7 +794,7 @@
   <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,11 +856,11 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -880,10 +885,10 @@
       </c>
       <c r="H2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"pa",Tabla5[pago?],"no")</f>
-        <v>8362.5</v>
+        <v>8439.5</v>
       </c>
       <c r="I2">
-        <v>1055</v>
+        <v>1155</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -893,20 +898,20 @@
       </c>
       <c r="L2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"tarjeta")</f>
-        <v>1462</v>
+        <v>1287</v>
       </c>
       <c r="M2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"fisico")</f>
-        <v>1620</v>
+        <v>2797</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
@@ -969,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -981,7 +986,7 @@
         <v>1462</v>
       </c>
       <c r="M4">
-        <v>3120</v>
+        <v>2796</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1009,10 +1014,10 @@
       <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1042,11 +1047,11 @@
       </c>
       <c r="L6">
         <f>SUM(L4,-L2)</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="M6">
         <f>SUM(M4,-M2)</f>
-        <v>1500</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1071,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="1">
-        <v>462</v>
+        <v>539</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
@@ -1081,20 +1086,20 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>100</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1"/>
@@ -1127,96 +1132,97 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>901</v>
+      <c r="I9">
+        <v>1310</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="21">
-        <v>20000</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="20">
         <v>20000</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="21">
-        <v>72</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="21" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>258</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>4</v>
@@ -1224,101 +1230,58 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
-        <v>619</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13">
-        <v>303</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14">
-        <v>1310</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>83</v>
+        <v>303</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="11"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="8">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="11"/>
       <c r="H16" s="1"/>
       <c r="I16" s="10"/>
@@ -1327,19 +1290,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="B17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="20">
+        <v>72</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="11"/>
@@ -1349,20 +1312,20 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="8">
-        <v>35</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>619</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="11"/>
@@ -1373,20 +1336,20 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="21">
-        <v>35</v>
+      <c r="A19" s="16"/>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="11"/>
@@ -1395,19 +1358,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="21">
-        <v>35</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="21" t="s">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="11"/>
@@ -1415,40 +1378,40 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="29">
-        <v>150</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="30" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="23">
+        <v>35</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="11"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="29">
-        <v>84</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="28">
+        <v>35</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="11"/>
@@ -1458,20 +1421,20 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="29">
-        <v>3100</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="23">
+        <v>35</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="11"/>
@@ -1481,20 +1444,20 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="24">
-        <v>16</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="18">
+        <v>35</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="11"/>
@@ -1504,20 +1467,20 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="29">
-        <v>11</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="30" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="18">
+        <v>35</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="15"/>
@@ -1525,22 +1488,20 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="29">
-        <v>250</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="30" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="28">
+        <v>150</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="15"/>
@@ -1548,362 +1509,354 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="18">
-        <v>250</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="28">
+        <v>84</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="28">
+        <v>3100</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="23">
+        <v>16</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="28">
+        <v>11</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="37">
+        <v>250</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="30">
+        <v>250</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="B33" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="30">
         <v>250</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="18" t="s">
+      <c r="D33" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="F33" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="B34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="20">
         <v>250</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="18" t="s">
+      <c r="D34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="F34" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B35" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="20">
         <v>250</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="18" t="s">
+      <c r="D35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="F35" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="31">
+      <c r="B36" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="20">
         <v>250</v>
       </c>
-      <c r="D31" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="31" t="s">
+      <c r="D36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="F36" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="31">
+      <c r="B37" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="20">
         <v>250</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="31" t="s">
+      <c r="D37" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="F37" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="31">
+      <c r="B38" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="20">
         <v>250</v>
       </c>
-      <c r="D33" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="31" t="s">
+      <c r="D38" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="F38" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="21">
+      <c r="B39" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="20">
         <v>250</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="21" t="s">
+      <c r="D39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="F39" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="21">
+      <c r="B40" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="20">
         <v>250</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="21" t="s">
+      <c r="D40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="F40" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="B41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="8">
         <v>250</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="D41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="F41" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="8">
         <v>250</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="D42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="F42" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="B43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="8">
         <v>250</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="D43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39">
-        <v>250</v>
-      </c>
-      <c r="D39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40">
-        <v>250</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41">
-        <v>250</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42">
-        <v>250</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="F43" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
       </c>
       <c r="C44">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -1911,19 +1864,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
       <c r="C45">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="D45" t="s">
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -1931,222 +1884,294 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>250</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47">
+        <v>250</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>78</v>
       </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46">
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51">
         <v>77</v>
       </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
         <v>25</v>
       </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
         <v>77</v>
       </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
         <v>25</v>
       </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53">
         <v>77</v>
       </c>
-      <c r="D48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
         <v>25</v>
       </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="2">
+      <c r="B54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="2">
         <v>77.5</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="F54" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="8">
         <v>21</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51">
+      <c r="F55" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56">
         <v>66</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D56" t="s">
         <v>52</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E56" t="s">
         <v>23</v>
       </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52">
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
         <v>27</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E57" t="s">
         <v>9</v>
       </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="2">
-        <v>15</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="2">
-        <v>6</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55">
-        <v>47</v>
-      </c>
-      <c r="D55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="2">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="2">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="2">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2154,7 +2179,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2162,7 +2187,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="A63" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/control dinero.xlsx
+++ b/control dinero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="89">
   <si>
     <t>cantidad</t>
   </si>
@@ -217,9 +217,6 @@
     <t>2 a 8 de marzo</t>
   </si>
   <si>
-    <t>leo</t>
-  </si>
-  <si>
     <t>corte cabello</t>
   </si>
   <si>
@@ -286,13 +283,19 @@
     <t>18 a 24 mayo</t>
   </si>
   <si>
-    <t xml:space="preserve">leo </t>
-  </si>
-  <si>
     <t>tienda desayuno</t>
   </si>
   <si>
     <t>25 a 31 de mayo</t>
+  </si>
+  <si>
+    <t>pago crunchyroll, posiblemente</t>
+  </si>
+  <si>
+    <t>1 a 7 de junio</t>
+  </si>
+  <si>
+    <t>8 a 14 de junio</t>
   </si>
 </sst>
 </file>
@@ -442,14 +445,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,7 +797,7 @@
   <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,11 +859,11 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -885,10 +888,10 @@
       </c>
       <c r="H2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"pa",Tabla5[pago?],"no")</f>
-        <v>8439.5</v>
+        <v>8712.5</v>
       </c>
       <c r="I2">
-        <v>1155</v>
+        <v>1361.5</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -898,20 +901,20 @@
       </c>
       <c r="L2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"tarjeta")</f>
-        <v>1287</v>
+        <v>585</v>
       </c>
       <c r="M2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"fisico")</f>
-        <v>2797</v>
+        <v>3162.5</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
@@ -932,13 +935,13 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>7</v>
       </c>
       <c r="L3" t="s">
@@ -973,20 +976,20 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="I4">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I4" s="1">
+        <v>693</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L4">
-        <v>1462</v>
+        <v>585</v>
       </c>
       <c r="M4">
-        <v>2796</v>
+        <v>3162.5</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1008,16 +1011,19 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="I5">
+        <v>108</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="34"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1036,22 +1042,22 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L6">
         <f>SUM(L4,-L2)</f>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f>SUM(M4,-M2)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1075,11 +1081,11 @@
       <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1">
-        <v>539</v>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>7</v>
@@ -1088,13 +1094,13 @@
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="20">
+        <v>50</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="20">
-        <v>100</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>63</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>9</v>
@@ -1104,22 +1110,19 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
-      <c r="I8">
-        <v>103</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -1136,21 +1139,21 @@
         <v>1310</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -1161,7 +1164,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>726</v>
+        <v>252</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>9</v>
@@ -1179,23 +1182,23 @@
         <v>20000</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="I11">
+        <v>303</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1208,10 +1211,10 @@
         <v>20000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
@@ -1219,7 +1222,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>24</v>
@@ -1229,7 +1232,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1237,9 +1240,11 @@
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>4</v>
@@ -1248,7 +1253,7 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1256,32 +1261,57 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14">
-        <v>303</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="20">
+        <v>72</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="1"/>
+      <c r="I15">
+        <v>-198</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2">
+        <v>619</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="1"/>
       <c r="I16" s="10"/>
@@ -1289,20 +1319,20 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="20">
-        <v>72</v>
+      <c r="A17" s="16"/>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="11"/>
@@ -1314,16 +1344,16 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>619</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
@@ -1331,23 +1361,23 @@
       <c r="G18" s="11"/>
       <c r="H18" s="1"/>
       <c r="I18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C19" s="8">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>14</v>
@@ -1359,16 +1389,16 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C20" s="2">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>14</v>
@@ -1378,7 +1408,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="23" t="s">
         <v>29</v>
       </c>
@@ -1386,10 +1416,10 @@
         <v>35</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>14</v>
@@ -1399,19 +1429,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
-      <c r="B22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="28">
+      <c r="B22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="18">
         <v>35</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="29" t="s">
+      <c r="E22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="11"/>
@@ -1421,20 +1451,20 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="23">
+      <c r="A23" s="32"/>
+      <c r="B23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="18">
         <v>35</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="11"/>
@@ -1445,19 +1475,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
-      <c r="B24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="18">
-        <v>35</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="B24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="28">
+        <v>150</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="11"/>
@@ -1467,20 +1497,20 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="18">
-        <v>35</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="28">
+        <v>84</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="15"/>
@@ -1493,13 +1523,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="28">
-        <v>150</v>
+        <v>3100</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>14</v>
@@ -1509,20 +1539,20 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="28">
-        <v>84</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="29" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="23">
+        <v>16</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="11"/>
@@ -1534,77 +1564,81 @@
         <v>29</v>
       </c>
       <c r="C28" s="28">
-        <v>3100</v>
+        <v>11</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="23">
-        <v>16</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="24" t="s">
+      <c r="A29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="28">
+        <v>250</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="28">
-        <v>11</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="29" t="s">
+      <c r="A30" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="18">
+        <v>250</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="37">
+      <c r="A31" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="30">
         <v>250</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="37" t="s">
+      <c r="D31" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>29</v>
@@ -1623,8 +1657,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>34</v>
+      <c r="A33" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>29</v>
@@ -1643,8 +1677,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>37</v>
+      <c r="A34" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>29</v>
@@ -1663,8 +1697,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>39</v>
+      <c r="A35" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>29</v>
@@ -1683,8 +1717,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>47</v>
+      <c r="A36" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>29</v>
@@ -1703,8 +1737,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>48</v>
+      <c r="A37" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>29</v>
@@ -1723,8 +1757,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>51</v>
+      <c r="A38" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>29</v>
@@ -1743,48 +1777,48 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="20">
+      <c r="A39" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="8">
         <v>250</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="20" t="s">
+      <c r="D39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="20">
+      <c r="A40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="8">
         <v>250</v>
       </c>
-      <c r="D40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="20" t="s">
+      <c r="D40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>59</v>
+      <c r="A41" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>29</v>
@@ -1803,48 +1837,48 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
         <v>250</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
         <v>250</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
@@ -1864,7 +1898,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
@@ -1884,13 +1918,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
       </c>
       <c r="C46">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -1904,19 +1938,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
       <c r="C47">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
         <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -1924,19 +1958,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -1944,7 +1978,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -1963,8 +1997,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>77</v>
+      <c r="A50" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
@@ -1983,8 +2017,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>78</v>
+      <c r="A51" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -2004,119 +2038,119 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52">
+        <v>31</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="8">
+        <v>21</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54">
+        <v>66</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2">
         <v>77</v>
       </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53">
+      <c r="F56" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="2">
         <v>77</v>
       </c>
-      <c r="D53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="2">
-        <v>77.5</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="8">
-        <v>21</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56">
-        <v>66</v>
-      </c>
-      <c r="D56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57">
-        <v>27</v>
-      </c>
-      <c r="D57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>87</v>
+      <c r="A58" s="38" t="s">
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
@@ -2137,7 +2171,7 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2">
         <v>15</v>
@@ -2155,13 +2189,13 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2">
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>

--- a/control dinero.xlsx
+++ b/control dinero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="89">
   <si>
     <t>cantidad</t>
   </si>
@@ -289,13 +289,13 @@
     <t>25 a 31 de mayo</t>
   </si>
   <si>
-    <t>pago crunchyroll, posiblemente</t>
-  </si>
-  <si>
     <t>1 a 7 de junio</t>
   </si>
   <si>
     <t>8 a 14 de junio</t>
+  </si>
+  <si>
+    <t>medicina</t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,7 @@
   <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L5" sqref="L5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,14 +884,14 @@
       </c>
       <c r="G2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"ma",Tabla5[pago?],"no")</f>
-        <v>40000</v>
+        <v>40057</v>
       </c>
       <c r="H2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"pa",Tabla5[pago?],"no")</f>
         <v>8712.5</v>
       </c>
       <c r="I2">
-        <v>1361.5</v>
+        <v>1134.5</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -901,11 +901,11 @@
       </c>
       <c r="L2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"tarjeta")</f>
-        <v>585</v>
+        <v>1703</v>
       </c>
       <c r="M2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"fisico")</f>
-        <v>3162.5</v>
+        <v>2052.5</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -936,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>831</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -977,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="1">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
@@ -986,10 +986,10 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>585</v>
+        <v>1703</v>
       </c>
       <c r="M4">
-        <v>3162.5</v>
+        <v>1552.5</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1012,7 +1012,7 @@
         <v>14</v>
       </c>
       <c r="I5">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="M6">
         <f>SUM(M4,-M2)</f>
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>252</v>
+        <v>677</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>9</v>
@@ -1233,11 +1233,21 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
@@ -1261,7 +1271,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>693</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1288,12 +1300,6 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="1"/>
-      <c r="I15">
-        <v>-198</v>
-      </c>
-      <c r="J15" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>29</v>
@@ -2150,7 +2156,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>

--- a/control dinero.xlsx
+++ b/control dinero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="91">
   <si>
     <t>cantidad</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>medicina</t>
+  </si>
+  <si>
+    <t>15 a 21 junio</t>
+  </si>
+  <si>
+    <t>prestamo, en realidad son 250, pero di 500</t>
   </si>
 </sst>
 </file>
@@ -797,7 +803,7 @@
   <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:M5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,14 +890,14 @@
       </c>
       <c r="G2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"ma",Tabla5[pago?],"no")</f>
-        <v>40057</v>
+        <v>40634</v>
       </c>
       <c r="H2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"pa",Tabla5[pago?],"no")</f>
-        <v>8712.5</v>
+        <v>8789.5</v>
       </c>
       <c r="I2">
-        <v>1134.5</v>
+        <v>634.5</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -901,11 +907,11 @@
       </c>
       <c r="L2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"tarjeta")</f>
-        <v>1703</v>
+        <v>1084</v>
       </c>
       <c r="M2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"fisico")</f>
-        <v>2052.5</v>
+        <v>1552.5</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -986,7 +992,7 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>1703</v>
+        <v>1084</v>
       </c>
       <c r="M4">
         <v>1552.5</v>
@@ -1057,7 +1063,7 @@
       </c>
       <c r="M6">
         <f>SUM(M4,-M2)</f>
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1092,18 +1098,18 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C8" s="20">
-        <v>50</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>62</v>
+        <v>20000</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>14</v>
@@ -1118,19 +1124,20 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1"/>
@@ -1146,19 +1153,20 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1"/>
@@ -1174,20 +1182,22 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="20">
-        <v>20000</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="C11" s="2">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1"/>
@@ -1203,20 +1213,20 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="20">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1"/>
@@ -1232,18 +1242,18 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>57</v>
+        <v>619</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1263,16 +1273,26 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
-        <v>693</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>25</v>
@@ -1283,39 +1303,39 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="20">
-        <v>72</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2">
-        <v>619</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="20">
+        <v>50</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="11"/>
@@ -1325,20 +1345,19 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8">
-        <v>4</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="11"/>
@@ -1348,20 +1367,19 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="11"/>
@@ -2175,18 +2193,20 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C59" s="2">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -2198,13 +2218,13 @@
         <v>63</v>
       </c>
       <c r="C60" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
@@ -2212,19 +2232,39 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="2">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2">
+        <v>500</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>

--- a/control dinero.xlsx
+++ b/control dinero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="90">
   <si>
     <t>cantidad</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>pago</t>
-  </si>
-  <si>
-    <t>invertidos el 16 de mayo</t>
   </si>
   <si>
     <t>18 a 24 mayo</t>
@@ -907,7 +904,7 @@
       </c>
       <c r="L2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"tarjeta")</f>
-        <v>1084</v>
+        <v>2400</v>
       </c>
       <c r="M2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"fisico")</f>
@@ -992,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>1084</v>
+        <v>2401</v>
       </c>
       <c r="M4">
         <v>1552.5</v>
@@ -1059,7 +1056,7 @@
       </c>
       <c r="L6">
         <f>SUM(L4,-L2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f>SUM(M4,-M2)</f>
@@ -1143,13 +1140,13 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1161,7 +1158,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1183,7 +1180,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>60</v>
@@ -1374,7 +1371,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -2042,7 +2039,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>29</v>
@@ -2154,7 +2151,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>29</v>
@@ -2174,7 +2171,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
@@ -2194,7 +2191,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>29</v>
@@ -2257,7 +2254,7 @@
         <v>500</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>

--- a/control dinero.xlsx
+++ b/control dinero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="94">
   <si>
     <t>cantidad</t>
   </si>
@@ -292,13 +292,25 @@
     <t>8 a 14 de junio</t>
   </si>
   <si>
-    <t>medicina</t>
-  </si>
-  <si>
     <t>15 a 21 junio</t>
   </si>
   <si>
-    <t>prestamo, en realidad son 250, pero di 500</t>
+    <t>22 a 28 junio</t>
+  </si>
+  <si>
+    <t>29 junio a 5 de julio</t>
+  </si>
+  <si>
+    <t>ma, luego</t>
+  </si>
+  <si>
+    <t>gym</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>1 semana 1 viernes taller</t>
   </si>
 </sst>
 </file>
@@ -409,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -444,15 +456,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,10 +489,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:F63" totalsRowShown="0">
-  <autoFilter ref="A1:F63"/>
-  <sortState ref="A2:F63">
-    <sortCondition ref="B1:B63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:F67" totalsRowShown="0">
+  <autoFilter ref="A1:F67"/>
+  <sortState ref="A2:F67">
+    <sortCondition ref="B1:B67"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="fecha"/>
@@ -797,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,11 +873,11 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -887,14 +898,14 @@
       </c>
       <c r="G2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"ma",Tabla5[pago?],"no")</f>
-        <v>40634</v>
+        <v>40040</v>
       </c>
       <c r="H2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"pa",Tabla5[pago?],"no")</f>
-        <v>8789.5</v>
+        <v>7443.5</v>
       </c>
       <c r="I2">
-        <v>634.5</v>
+        <v>3218.5</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -904,20 +915,20 @@
       </c>
       <c r="L2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"tarjeta")</f>
-        <v>2400</v>
+        <v>1761</v>
       </c>
       <c r="M2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"fisico")</f>
-        <v>1552.5</v>
+        <v>4850.5</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
@@ -939,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="I3">
-        <v>831</v>
+        <v>558</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -980,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
@@ -989,10 +1000,10 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>2401</v>
+        <v>1763</v>
       </c>
       <c r="M4">
-        <v>1552.5</v>
+        <v>4850.5</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1015,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="I5">
-        <v>87</v>
+        <v>803</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -1023,10 +1034,10 @@
       <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="39"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1056,7 +1067,7 @@
       </c>
       <c r="L6">
         <f>SUM(L4,-L2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <f>SUM(M4,-M2)</f>
@@ -1150,26 +1161,26 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2">
-        <v>57</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="20">
+        <v>72</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>677</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>9</v>
@@ -1179,20 +1190,18 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>88</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>77</v>
+        <v>619</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
@@ -1210,20 +1219,20 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="20">
-        <v>72</v>
+      <c r="A12" s="16"/>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1"/>
@@ -1241,16 +1250,16 @@
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>619</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1270,20 +1279,20 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="20">
+        <v>50</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="1"/>
@@ -1301,38 +1310,47 @@
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="1"/>
+      <c r="I15">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="20">
-        <v>50</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="20" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="11"/>
@@ -1342,19 +1360,20 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="11"/>
@@ -1364,19 +1383,20 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="11"/>
@@ -1387,7 +1407,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
@@ -1395,10 +1415,10 @@
         <v>35</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>14</v>
@@ -1409,19 +1429,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="20">
         <v>35</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="11"/>
@@ -1429,40 +1449,40 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="23">
+      <c r="A21" s="30"/>
+      <c r="B21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="18">
         <v>35</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="11"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="18">
-        <v>35</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="28">
+        <v>150</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="11"/>
@@ -1472,20 +1492,20 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="18">
-        <v>35</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="28">
+        <v>84</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="11"/>
@@ -1495,18 +1515,18 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="28">
-        <v>150</v>
+        <v>1600</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>14</v>
@@ -1518,20 +1538,20 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="28">
-        <v>84</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="29" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="23">
+        <v>16</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="15"/>
@@ -1539,18 +1559,18 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="28">
-        <v>3100</v>
+        <v>11</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>14</v>
@@ -1560,66 +1580,70 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="23">
-        <v>16</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="24" t="s">
+      <c r="A27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="28">
+        <v>250</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="28">
-        <v>11</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="29" t="s">
+      <c r="A28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="18">
+        <v>250</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="28">
+      <c r="A29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="18">
         <v>250</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="28" t="s">
+      <c r="D29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>30</v>
+      <c r="A30" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>29</v>
@@ -1638,68 +1662,68 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="30">
+      <c r="A31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="35">
         <v>250</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="30" t="s">
+      <c r="D31" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="30">
+      <c r="A32" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="35">
         <v>250</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="30" t="s">
+      <c r="D32" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="30">
+      <c r="A33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="35">
         <v>250</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="30" t="s">
+      <c r="D33" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>47</v>
+      <c r="A34" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>29</v>
@@ -1718,8 +1742,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>48</v>
+      <c r="A35" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>29</v>
@@ -1738,8 +1762,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>51</v>
+      <c r="A36" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>29</v>
@@ -1758,48 +1782,48 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="20">
+      <c r="A37" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="8">
         <v>250</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="20" t="s">
+      <c r="D37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="20">
+      <c r="A38" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="8">
         <v>250</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="20" t="s">
+      <c r="D38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>59</v>
+      <c r="A39" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>29</v>
@@ -1818,48 +1842,48 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
         <v>250</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
         <v>250</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -1879,7 +1903,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
@@ -1899,13 +1923,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
       </c>
       <c r="C44">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
@@ -1919,19 +1943,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
       <c r="C45">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -1939,19 +1963,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -1959,7 +1983,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -1978,8 +2002,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>76</v>
+      <c r="A48" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -1998,8 +2022,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>77</v>
+      <c r="A49" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -2019,119 +2043,119 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="8">
+        <v>21</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="2">
         <v>77</v>
       </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51">
+      <c r="F54" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="2">
         <v>77</v>
       </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="2">
-        <v>77.5</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="8">
-        <v>21</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54">
-        <v>66</v>
-      </c>
-      <c r="D54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55">
-        <v>27</v>
-      </c>
-      <c r="D55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>84</v>
+      <c r="A56" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>29</v>
@@ -2150,8 +2174,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
-        <v>85</v>
+      <c r="A57" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>29</v>
@@ -2170,42 +2194,42 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="2">
+      <c r="A58" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58">
         <v>77</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="2">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59">
         <v>77</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2246,25 +2270,57 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="2">
+        <v>330</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="2">
-        <v>500</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="C63" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
+      <c r="F63" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/control dinero.xlsx
+++ b/control dinero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="95">
   <si>
     <t>cantidad</t>
   </si>
@@ -310,7 +310,10 @@
     <t>agua</t>
   </si>
   <si>
-    <t>1 semana 1 viernes taller</t>
+    <t xml:space="preserve">6 a 12 de julio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 a 19 julio </t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -459,14 +462,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +495,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:F67" totalsRowShown="0">
-  <autoFilter ref="A1:F67"/>
-  <sortState ref="A2:F67">
-    <sortCondition ref="B1:B67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:F68" totalsRowShown="0">
+  <autoFilter ref="A1:F68"/>
+  <sortState ref="A2:F68">
+    <sortCondition ref="B1:B68"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="fecha"/>
@@ -808,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X65"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L5" sqref="L5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,11 +879,11 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -898,14 +904,14 @@
       </c>
       <c r="G2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"ma",Tabla5[pago?],"no")</f>
-        <v>40040</v>
+        <v>40194</v>
       </c>
       <c r="H2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"pa",Tabla5[pago?],"no")</f>
-        <v>7443.5</v>
+        <v>7597.5</v>
       </c>
       <c r="I2">
-        <v>3218.5</v>
+        <v>3399.5</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -915,20 +921,20 @@
       </c>
       <c r="L2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"tarjeta")</f>
-        <v>1761</v>
+        <v>1651</v>
       </c>
       <c r="M2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"fisico")</f>
-        <v>4850.5</v>
+        <v>5470.5</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
@@ -950,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="I3">
-        <v>558</v>
+        <v>738</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -1000,10 +1006,10 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>1763</v>
+        <v>1653</v>
       </c>
       <c r="M4">
-        <v>4850.5</v>
+        <v>5470.5</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1026,7 +1032,7 @@
         <v>14</v>
       </c>
       <c r="I5">
-        <v>803</v>
+        <v>962</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -1034,10 +1040,10 @@
       <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="38"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1151,7 +1157,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9">
-        <v>1316</v>
+        <v>1216</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>67</v>
@@ -1161,26 +1167,26 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="20">
-        <v>72</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>9</v>
@@ -1190,20 +1196,22 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2">
-        <v>619</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1"/>
@@ -1219,20 +1227,22 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="A12" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1"/>
@@ -1248,18 +1258,18 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1279,15 +1289,15 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="20">
-        <v>50</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>9</v>
@@ -1310,13 +1320,13 @@
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>45</v>
+        <v>619</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
@@ -1337,43 +1347,49 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="C16" s="8">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="10">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="8">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="11"/>
@@ -1383,20 +1399,20 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="20">
+        <v>50</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="11"/>
@@ -1407,20 +1423,20 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="8">
-        <v>35</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="11"/>
@@ -1429,19 +1445,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="20">
-        <v>35</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="11"/>
@@ -1449,20 +1465,20 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="A21" s="27"/>
+      <c r="B21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="23">
         <v>35</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="11"/>
@@ -1474,10 +1490,10 @@
         <v>29</v>
       </c>
       <c r="C22" s="28">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>22</v>
@@ -1492,20 +1508,20 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="28">
-        <v>84</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="29" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="23">
+        <v>35</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="11"/>
@@ -1516,19 +1532,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
-      <c r="B24" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="28">
-        <v>1600</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="B24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="18">
+        <v>35</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="11"/>
@@ -1538,20 +1554,20 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="23">
-        <v>16</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="18">
+        <v>35</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="15"/>
@@ -1564,13 +1580,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="28">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>14</v>
@@ -1580,20 +1596,18 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="A27" s="27"/>
       <c r="B27" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="28">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>14</v>
@@ -1602,128 +1616,122 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="28">
+        <v>1600</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="23">
+        <v>16</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="28">
+        <v>11</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="40">
+        <v>250</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="B32" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="33">
         <v>250</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="18" t="s">
+      <c r="D32" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="18">
-        <v>250</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="18">
-        <v>250</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="35">
-        <v>250</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="35">
-        <v>250</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="35">
+        <v>34</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="33">
         <v>250</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="35" t="s">
+      <c r="D33" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>29</v>
@@ -1742,8 +1750,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>55</v>
+      <c r="A35" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>29</v>
@@ -1762,8 +1770,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>57</v>
+      <c r="A36" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>29</v>
@@ -1782,154 +1790,154 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="20">
+        <v>250</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="20">
+        <v>250</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="20">
+        <v>250</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="20">
+        <v>250</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="8">
         <v>250</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="D41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="F41" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="B42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="8">
         <v>250</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="D42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="F42" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="8">
         <v>250</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="D43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40">
-        <v>250</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41">
-        <v>250</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42">
-        <v>250</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43">
-        <v>250</v>
-      </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="F43" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
@@ -1943,19 +1951,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
       <c r="C45">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="D45" t="s">
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -1963,19 +1971,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
       </c>
       <c r="C46">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -1983,47 +1991,47 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
       <c r="C47">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="D47" t="s">
         <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>78</v>
+      <c r="A48" t="s">
+        <v>74</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
       </c>
       <c r="C48">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>82</v>
+      <c r="A49" t="s">
+        <v>75</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -2042,89 +2050,97 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="2">
         <v>77.5</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="8">
-        <v>21</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52">
-        <v>66</v>
-      </c>
-      <c r="D52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53">
-        <v>27</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="2">
-        <v>77</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>25</v>
@@ -2134,193 +2150,260 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="16"/>
+      <c r="B55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="8">
+        <v>21</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="2">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="B59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="2">
         <v>77</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="F59" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="B60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="2">
         <v>77</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+      <c r="F60" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="2">
+      <c r="B61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="2">
         <v>77</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62">
         <v>77</v>
       </c>
-      <c r="D58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
         <v>58</v>
       </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>89</v>
       </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59">
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63">
         <v>77</v>
       </c>
-      <c r="D59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
         <v>58</v>
       </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64">
+        <v>77</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65">
+        <v>77</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C66" s="2">
         <v>15</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
+      <c r="F66" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C67" s="2">
         <v>6</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="2">
-        <v>330</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="2">
-        <v>40</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/control dinero.xlsx
+++ b/control dinero.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="98">
   <si>
     <t>cantidad</t>
   </si>
@@ -307,13 +307,22 @@
     <t>gym</t>
   </si>
   <si>
-    <t>agua</t>
-  </si>
-  <si>
     <t xml:space="preserve">6 a 12 de julio </t>
   </si>
   <si>
     <t xml:space="preserve">13 a 19 julio </t>
+  </si>
+  <si>
+    <t>yousician</t>
+  </si>
+  <si>
+    <t>bionico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">megacable </t>
+  </si>
+  <si>
+    <t>del 20 de julio al 9 de agosto no pedi dinero para megacable, saldra de gastos</t>
   </si>
 </sst>
 </file>
@@ -424,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -452,27 +461,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +505,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:F68" totalsRowShown="0">
-  <autoFilter ref="A1:F68"/>
-  <sortState ref="A2:F68">
-    <sortCondition ref="B1:B68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:F76" totalsRowShown="0">
+  <autoFilter ref="A1:F76"/>
+  <sortState ref="A2:F75">
+    <sortCondition ref="B1:B76"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="fecha"/>
@@ -513,8 +523,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla62" displayName="Tabla62" ref="I1:K16" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="I1:K16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla62" displayName="Tabla62" ref="I1:K17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="I1:K17"/>
   <sortState ref="I2:K16">
     <sortCondition ref="K1:K16"/>
   </sortState>
@@ -814,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:M5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,11 +889,11 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -904,14 +914,14 @@
       </c>
       <c r="G2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"ma",Tabla5[pago?],"no")</f>
-        <v>40194</v>
+        <v>40034</v>
       </c>
       <c r="H2">
         <f>SUMIFS(Tabla5[cantidad],Tabla5[persona],"pa",Tabla5[pago?],"no")</f>
-        <v>7597.5</v>
+        <v>7622.5</v>
       </c>
       <c r="I2">
-        <v>3399.5</v>
+        <v>1491</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -921,20 +931,20 @@
       </c>
       <c r="L2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"tarjeta")</f>
-        <v>1651</v>
+        <v>4055.5</v>
       </c>
       <c r="M2">
         <f>SUMIFS(Tabla62[cantidad],Tabla62[donde],"fisico")</f>
-        <v>5470.5</v>
+        <v>4862.5</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
@@ -956,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="I3">
-        <v>738</v>
+        <v>1340</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -997,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="1">
-        <v>231</v>
+        <v>685</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
@@ -1006,10 +1016,10 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>1653</v>
+        <v>4236</v>
       </c>
       <c r="M4">
-        <v>5470.5</v>
+        <v>4890.5</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1032,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="I5">
-        <v>962</v>
+        <v>1206.5</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -1040,10 +1050,10 @@
       <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="36"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1073,11 +1083,11 @@
       </c>
       <c r="L6">
         <f>SUM(L4,-L2)</f>
-        <v>2</v>
+        <v>180.5</v>
       </c>
       <c r="M6">
         <f>SUM(M4,-M2)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1157,7 +1167,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9">
-        <v>1216</v>
+        <v>392</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>67</v>
@@ -1167,26 +1177,25 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="2">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>28</v>
+        <v>2873.5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>9</v>
@@ -1196,22 +1205,20 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2">
+        <v>330</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1"/>
@@ -1227,22 +1234,20 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
+      <c r="C12" s="20">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1"/>
@@ -1258,18 +1263,18 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>330</v>
+        <v>619</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1290,25 +1295,25 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="20">
-        <v>72</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2">
+        <v>545</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>25</v>
@@ -1318,20 +1323,20 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2">
-        <v>619</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="11"/>
@@ -1347,20 +1352,20 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="C16" s="2">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="11"/>
@@ -1376,41 +1381,51 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="10">
+        <v>457</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="B18" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="20">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>14</v>
@@ -1423,18 +1438,20 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
@@ -1444,61 +1461,69 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="23">
-        <v>35</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="24" t="s">
+      <c r="A21" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="18">
+        <v>250</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="11"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="28">
-        <v>35</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="29" t="s">
+      <c r="A22" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25">
+        <v>77</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="11"/>
@@ -1508,20 +1533,22 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="23">
-        <v>35</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="A23" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="25">
+        <v>77</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="11"/>
@@ -1531,18 +1558,20 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="B24" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="18">
-        <v>35</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>38</v>
+        <v>250</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>14</v>
@@ -1554,20 +1583,22 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="18">
-        <v>35</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="A25" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="25">
+        <v>250</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="15"/>
@@ -1575,20 +1606,22 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="28">
-        <v>150</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="29" t="s">
+      <c r="A26" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="18">
+        <v>250</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="15"/>
@@ -1596,196 +1629,204 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="28">
-        <v>84</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="29" t="s">
+      <c r="A27" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="25">
+        <v>77</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="28">
-        <v>1600</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="29" t="s">
+      <c r="A28" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="40">
+        <v>250</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="23">
-        <v>16</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="24" t="s">
+      <c r="A29" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="25">
+        <v>77</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="28">
-        <v>11</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="29" t="s">
+      <c r="A30" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="18">
+        <v>250</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="40">
+      <c r="A31" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="30">
+        <v>77</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="30">
+        <v>77.5</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="30">
         <v>250</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="33">
+      <c r="D33" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="8">
         <v>250</v>
       </c>
-      <c r="D32" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="33">
-        <v>250</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="20">
-        <v>250</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="20" t="s">
+      <c r="D34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="20">
-        <v>250</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="20" t="s">
+      <c r="A35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2">
+        <v>77</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="20">
-        <v>250</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="20" t="s">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2">
+        <v>77</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1810,28 +1851,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="2">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="20">
-        <v>250</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>29</v>
@@ -1850,8 +1891,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>57</v>
+      <c r="A40" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>29</v>
@@ -1870,492 +1911,463 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="A41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2">
         <v>250</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="A42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2">
+        <v>77</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2">
         <v>250</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="20">
+        <v>250</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2">
+        <v>77</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2">
+        <v>77</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2">
+        <v>250</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="8">
         <v>250</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="D48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44">
-        <v>250</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45">
-        <v>250</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46">
-        <v>250</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47">
-        <v>250</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="F48" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49">
-        <v>77</v>
-      </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="A49" s="24"/>
+      <c r="B49" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="20">
+        <v>50</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="2">
+        <v>24</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="8">
+        <v>35</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2">
+        <v>35</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="8">
+        <v>35</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="20">
+        <v>35</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="20">
+        <v>35</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="2">
+        <v>150</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="2">
+        <v>84</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="8">
+        <v>16</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="2">
+        <v>11</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="8">
+        <v>21</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65">
         <v>25</v>
       </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50">
-        <v>77</v>
-      </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51">
-        <v>77</v>
-      </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52">
-        <v>77</v>
-      </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53">
-        <v>77</v>
-      </c>
-      <c r="D53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="2">
-        <v>77.5</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="8">
-        <v>21</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="D65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" t="s">
         <v>9</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56">
-        <v>66</v>
-      </c>
-      <c r="D56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57">
-        <v>27</v>
-      </c>
-      <c r="D57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="2">
-        <v>77</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="2">
-        <v>77</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="2">
-        <v>77</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="2">
-        <v>77</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62">
-        <v>77</v>
-      </c>
-      <c r="D62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63">
-        <v>77</v>
-      </c>
-      <c r="D63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64">
-        <v>77</v>
-      </c>
-      <c r="D64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65">
-        <v>77</v>
-      </c>
-      <c r="D65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" t="s">
-        <v>25</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -2398,12 +2410,48 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68">
+        <v>279</v>
+      </c>
+      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
